--- a/data/alignments/variable_tempo.xlsx
+++ b/data/alignments/variable_tempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtjor\OneDrive - purdue.edu\Documents\Purdue-Artificial-Intelligence-in-Music\Companion-code\data\alignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A980DCE-F8CF-4231-B997-2C8DFB714D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD2E388-911C-4765-BADB-CD5608708C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
